--- a/Test Data/TC_71808_Verify_Normal_Load_On_Changing_Housing_Property_Of_DIM_FC.xlsx
+++ b/Test Data/TC_71808_Verify_Normal_Load_On_Changing_Housing_Property_Of_DIM_FC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310806E5-2B3A-4A6A-9F4B-5E8C7F0E4738}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459FB613-54F4-4D87-AD65-A2FE59717D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,10 +151,10 @@
     <t>Ancillary Conventional</t>
   </si>
   <si>
+    <t>Battery load</t>
+  </si>
+  <si>
     <t>Class B - 1 Spur</t>
-  </si>
-  <si>
-    <t>Battery load</t>
   </si>
 </sst>
 </file>
@@ -318,6 +318,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -329,18 +341,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,12 +647,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -662,10 +662,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -707,7 +707,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -722,20 +722,20 @@
         <v>0.05</v>
       </c>
       <c r="J6" s="17"/>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="24"/>
+      <c r="L6" s="28"/>
       <c r="N6" s="17">
         <v>0.251</v>
       </c>
       <c r="O6" s="17">
         <v>0.443</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="24"/>
+      <c r="R6" s="28"/>
     </row>
     <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -780,7 +780,7 @@
       <c r="N7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="24" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="19" t="s">
@@ -797,7 +797,7 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -806,10 +806,10 @@
       <c r="E8" s="6">
         <v>16</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="22">
         <v>0.25</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="23">
         <v>0.438</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -828,7 +828,7 @@
         <v>0.443</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N8" s="20">
         <v>0.25</v>

--- a/Test Data/TC_71808_Verify_Normal_Load_On_Changing_Housing_Property_Of_DIM_FC.xlsx
+++ b/Test Data/TC_71808_Verify_Normal_Load_On_Changing_Housing_Property_Of_DIM_FC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459FB613-54F4-4D87-AD65-A2FE59717D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Color Codes</t>
   </si>
@@ -155,12 +154,24 @@
   </si>
   <si>
     <t>Class B - 1 Spur</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Battery Alarm (A)</t>
+  </si>
+  <si>
+    <t>Battery Standby (A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -307,7 +318,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -621,11 +631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,39 +648,40 @@
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="25.21875" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="16" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
     <col min="15" max="15" width="25.33203125" customWidth="1"/>
     <col min="17" max="17" width="23.6640625" customWidth="1"/>
     <col min="18" max="18" width="23.44140625" customWidth="1"/>
     <col min="19" max="19" width="25.21875" customWidth="1"/>
+    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -683,7 +694,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -695,10 +706,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -713,31 +724,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>8.2500000000000004E-3</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>0.05</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="N6" s="17">
+      <c r="L6" s="27"/>
+      <c r="N6" s="16">
         <v>0.251</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="16">
         <v>0.443</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="28"/>
-    </row>
-    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R6" s="27"/>
+    </row>
+    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -774,30 +785,36 @@
       <c r="L7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="S7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -806,10 +823,10 @@
       <c r="E8" s="6">
         <v>16</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>0.25</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>0.438</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -821,19 +838,19 @@
       <c r="J8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>0.251</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <v>0.443</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>0.25</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>0.443</v>
       </c>
       <c r="Q8" s="15">
@@ -842,7 +859,12 @@
       <c r="R8" s="15">
         <v>0.46</v>
       </c>
-      <c r="S8" s="16"/>
+      <c r="S8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -857,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71808_Verify_Normal_Load_On_Changing_Housing_Property_Of_DIM_FC.xlsx
+++ b/Test Data/TC_71808_Verify_Normal_Load_On_Changing_Housing_Property_Of_DIM_FC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D1D30D-D3FD-456C-8DA7-FC1484000F1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,11 +632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,7 +646,7 @@
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="25.21875" customWidth="1"/>
     <col min="13" max="13" width="25.33203125" style="16" customWidth="1"/>
@@ -653,11 +654,9 @@
     <col min="15" max="15" width="25.33203125" customWidth="1"/>
     <col min="17" max="17" width="23.6640625" customWidth="1"/>
     <col min="18" max="18" width="23.44140625" customWidth="1"/>
-    <col min="19" max="19" width="25.21875" customWidth="1"/>
-    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
@@ -665,10 +664,14 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -678,10 +681,14 @@
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -694,7 +701,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -709,7 +716,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -724,7 +731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="H6" s="16">
         <v>8.2500000000000004E-3</v>
@@ -748,7 +755,7 @@
       </c>
       <c r="R6" s="27"/>
     </row>
-    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -800,14 +807,8 @@
       <c r="R7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>35</v>
       </c>
@@ -858,12 +859,6 @@
       </c>
       <c r="R8" s="15">
         <v>0.46</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71808_Verify_Normal_Load_On_Changing_Housing_Property_Of_DIM_FC.xlsx
+++ b/Test Data/TC_71808_Verify_Normal_Load_On_Changing_Housing_Property_Of_DIM_FC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D1D30D-D3FD-456C-8DA7-FC1484000F1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -163,16 +162,16 @@
     <t>StandbyLoadingDetail</t>
   </si>
   <si>
-    <t>Battery Alarm (A)</t>
-  </si>
-  <si>
-    <t>Battery Standby (A)</t>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -632,11 +631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71808_Verify_Normal_Load_On_Changing_Housing_Property_Of_DIM_FC.xlsx
+++ b/Test Data/TC_71808_Verify_Normal_Load_On_Changing_Housing_Property_Of_DIM_FC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2DDF17-4A40-4197-80E6-E1A4B13961A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Color Codes</t>
   </si>
@@ -132,9 +133,6 @@
     <t>Alarm Load after changing power supply</t>
   </si>
   <si>
-    <t>FIRECLASS 240-2</t>
-  </si>
-  <si>
     <t>change Housing Property</t>
   </si>
   <si>
@@ -166,12 +164,18 @@
   </si>
   <si>
     <t>Standby Current(A)</t>
+  </si>
+  <si>
+    <t>FC240-2</t>
+  </si>
+  <si>
+    <t>FC718D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,11 +635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,10 +668,10 @@
       <c r="D1" s="24"/>
       <c r="E1" s="12"/>
       <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -681,10 +685,10 @@
       <c r="D2" s="25"/>
       <c r="E2" s="13"/>
       <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -724,7 +728,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -777,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>24</v>
@@ -792,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="18" t="s">
         <v>31</v>
@@ -809,7 +813,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
@@ -830,13 +834,13 @@
         <v>0.438</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="K8" s="19">
         <v>0.251</v>
@@ -845,7 +849,7 @@
         <v>0.443</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" s="19">
         <v>0.25</v>
@@ -857,6 +861,59 @@
         <v>0.26</v>
       </c>
       <c r="R8" s="15">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6">
+        <v>16</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="R9" s="15">
         <v>0.46</v>
       </c>
     </row>
@@ -873,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71808_Verify_Normal_Load_On_Changing_Housing_Property_Of_DIM_FC.xlsx
+++ b/Test Data/TC_71808_Verify_Normal_Load_On_Changing_Housing_Property_Of_DIM_FC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2DDF17-4A40-4197-80E6-E1A4B13961A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D29E771-2653-4DEF-AC55-D4D0D2C5B260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Color Codes</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Default Alarm Load</t>
   </si>
   <si>
-    <t>NGC-1928</t>
-  </si>
-  <si>
     <t>Battery and Alarm Load Values</t>
   </si>
   <si>
@@ -170,6 +167,12 @@
   </si>
   <si>
     <t>FC718D</t>
+  </si>
+  <si>
+    <t>NGC-1928/T964 OR TC-71808</t>
+  </si>
+  <si>
+    <t>verifyNormalAndAlarmLoadOnChangingHousingPropertyOfDIM</t>
   </si>
 </sst>
 </file>
@@ -200,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +231,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -336,9 +333,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,7 +633,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,18 +654,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="12"/>
       <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -679,23 +673,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="13"/>
       <c r="F2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
         <v>4</v>
@@ -709,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -728,7 +724,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -743,20 +739,20 @@
         <v>0.05</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="27"/>
+      <c r="K6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="26"/>
       <c r="N6" s="16">
         <v>0.251</v>
       </c>
       <c r="O6" s="16">
         <v>0.443</v>
       </c>
-      <c r="Q6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="27"/>
+      <c r="Q6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="26"/>
     </row>
     <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -781,7 +777,7 @@
         <v>28</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>24</v>
@@ -796,24 +792,24 @@
         <v>26</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="Q7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="R7" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
@@ -828,34 +824,34 @@
         <v>16</v>
       </c>
       <c r="F8" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="G8" s="22">
-        <v>0.438</v>
+        <v>0.223</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.41199999999999998</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K8" s="19">
-        <v>0.251</v>
+        <v>0.224</v>
       </c>
       <c r="L8" s="19">
-        <v>0.443</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" s="19">
-        <v>0.25</v>
+        <v>0.224</v>
       </c>
       <c r="O8" s="19">
-        <v>0.443</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="Q8" s="15">
         <v>0.26</v>
@@ -866,7 +862,7 @@
     </row>
     <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
@@ -883,32 +879,32 @@
       <c r="F9" s="21">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>0.42599999999999999</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="K9" s="19">
         <v>0.27700000000000002</v>
       </c>
       <c r="L9" s="19">
-        <v>0.43099999999999999</v>
+        <v>0.432</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9" s="19">
-        <v>0.27700000000000002</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="O9" s="19">
-        <v>0.43099999999999999</v>
+        <v>0.432</v>
       </c>
       <c r="Q9" s="15">
         <v>0.26</v>
